--- a/change.xlsx
+++ b/change.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="26">
   <si>
     <t xml:space="preserve">Дата</t>
   </si>
@@ -130,7 +130,40 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">✈ Внуково: Электромонтер «1/3»: Подопригора Кирилл, Сантехник «1/3»: Валиев Юрий, Мастер хаус «5/2»: Долженко Валерий</t>
+      <t xml:space="preserve">✈ Внуково: Электромонтер «1/3»: Подопригора Кирилл, Сантехник «1/3»: Валиев Юрий, Мастер хаус «5/2»: Долженко Валерий, Сварщик «5/2»: Скороходов Павел </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">✈ Новое Внуково: Электромонтер «1/3»: Хамитов Тимур, Сантехник «5/2»: Клишин Виталий</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">✈ Внуково: Электромонтер «1/3»: Ефремов Алексей, Сантехник «1/3»: Галкин Владимир, Мастер хаус «5/2»: Долженко Валерий, Сварщик «5/2»: Скороходов Павел </t>
     </r>
     <r>
       <rPr>
@@ -240,12 +273,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -277,7 +314,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -291,9 +328,9 @@
         <f aca="true">TODAY()</f>
         <v>45252</v>
       </c>
-      <c r="B1" s="0" t="str">
+      <c r="B1" s="2" t="str">
         <f aca="false">VLOOKUP(A1,'Список сотрудников'!A2:B101,2)</f>
-        <v>✈ Внуково: Электромонтер «1/3»: Подопригора Кирилл, Сантехник «1/3»: Валиев Юрий, Мастер хаус «5/2»: Долженко Валерий| ✈ Новое Внуково: Электромонтер «1/3»: Хамитов Тимур, Сантехник «5/2»: Клишин Виталий</v>
+        <v>✈ Внуково: Электромонтер «1/3»: Подопригора Кирилл, Сантехник «1/3»: Валиев Юрий, Мастер хаус «5/2»: Долженко Валерий, Сварщик «5/2»: Скороходов Павел | ✈ Новое Внуково: Электромонтер «1/3»: Хамитов Тимур, Сантехник «5/2»: Клишин Виталий</v>
       </c>
     </row>
   </sheetData>
@@ -314,21 +351,21 @@
   </sheetPr>
   <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="93.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="93.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -336,7 +373,7 @@
       <c r="A2" s="1" t="n">
         <v>45231</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -344,7 +381,7 @@
       <c r="A3" s="1" t="n">
         <v>45232</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -352,7 +389,7 @@
       <c r="A4" s="1" t="n">
         <v>45233</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -360,7 +397,7 @@
       <c r="A5" s="1" t="n">
         <v>45234</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -368,7 +405,7 @@
       <c r="A6" s="1" t="n">
         <v>45235</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -376,7 +413,7 @@
       <c r="A7" s="1" t="n">
         <v>45236</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -384,7 +421,7 @@
       <c r="A8" s="1" t="n">
         <v>45237</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -392,7 +429,7 @@
       <c r="A9" s="1" t="n">
         <v>45238</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -400,7 +437,7 @@
       <c r="A10" s="1" t="n">
         <v>45239</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -408,7 +445,7 @@
       <c r="A11" s="1" t="n">
         <v>45240</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -416,7 +453,7 @@
       <c r="A12" s="1" t="n">
         <v>45241</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -424,7 +461,7 @@
       <c r="A13" s="1" t="n">
         <v>45242</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -432,7 +469,7 @@
       <c r="A14" s="1" t="n">
         <v>45243</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -440,7 +477,7 @@
       <c r="A15" s="1" t="n">
         <v>45244</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -448,7 +485,7 @@
       <c r="A16" s="1" t="n">
         <v>45245</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -456,7 +493,7 @@
       <c r="A17" s="1" t="n">
         <v>45246</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -464,7 +501,7 @@
       <c r="A18" s="1" t="n">
         <v>45247</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -472,7 +509,7 @@
       <c r="A19" s="1" t="n">
         <v>45248</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -480,7 +517,7 @@
       <c r="A20" s="1" t="n">
         <v>45249</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -488,7 +525,7 @@
       <c r="A21" s="1" t="n">
         <v>45250</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -496,7 +533,7 @@
       <c r="A22" s="1" t="n">
         <v>45251</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -504,23 +541,23 @@
       <c r="A23" s="1" t="n">
         <v>45252</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>45253</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>20</v>
+      <c r="B24" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>45254</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -528,15 +565,15 @@
       <c r="A26" s="1" t="n">
         <v>45255</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>24</v>
+      <c r="B26" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>45256</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -544,7 +581,7 @@
       <c r="A28" s="1" t="n">
         <v>45257</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -552,7 +589,7 @@
       <c r="A29" s="1" t="n">
         <v>45258</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -560,15 +597,15 @@
       <c r="A30" s="1" t="n">
         <v>45259</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>24</v>
+      <c r="B30" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>45260</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -576,7 +613,7 @@
       <c r="A32" s="1" t="n">
         <v>45261</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -584,7 +621,7 @@
       <c r="A33" s="1" t="n">
         <v>45262</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -592,15 +629,15 @@
       <c r="A34" s="1" t="n">
         <v>45263</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>24</v>
+      <c r="B34" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>45264</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -608,7 +645,7 @@
       <c r="A36" s="1" t="n">
         <v>45265</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -616,7 +653,7 @@
       <c r="A37" s="1" t="n">
         <v>45266</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -624,15 +661,15 @@
       <c r="A38" s="1" t="n">
         <v>45267</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>24</v>
+      <c r="B38" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>45268</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -640,7 +677,7 @@
       <c r="A40" s="1" t="n">
         <v>45269</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -648,7 +685,7 @@
       <c r="A41" s="1" t="n">
         <v>45270</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -656,15 +693,15 @@
       <c r="A42" s="1" t="n">
         <v>45271</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>24</v>
+      <c r="B42" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>45272</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -672,7 +709,7 @@
       <c r="A44" s="1" t="n">
         <v>45273</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -680,7 +717,7 @@
       <c r="A45" s="1" t="n">
         <v>45274</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -688,15 +725,15 @@
       <c r="A46" s="1" t="n">
         <v>45275</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>24</v>
+      <c r="B46" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>45276</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -704,7 +741,7 @@
       <c r="A48" s="1" t="n">
         <v>45277</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -712,7 +749,7 @@
       <c r="A49" s="1" t="n">
         <v>45278</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -720,15 +757,15 @@
       <c r="A50" s="1" t="n">
         <v>45279</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>24</v>
+      <c r="B50" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>45280</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -736,7 +773,7 @@
       <c r="A52" s="1" t="n">
         <v>45281</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -744,7 +781,7 @@
       <c r="A53" s="1" t="n">
         <v>45282</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -752,15 +789,15 @@
       <c r="A54" s="1" t="n">
         <v>45283</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>24</v>
+      <c r="B54" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>45284</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -768,7 +805,7 @@
       <c r="A56" s="1" t="n">
         <v>45285</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -776,7 +813,7 @@
       <c r="A57" s="1" t="n">
         <v>45286</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -784,15 +821,15 @@
       <c r="A58" s="1" t="n">
         <v>45287</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>24</v>
+      <c r="B58" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>45288</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -800,7 +837,7 @@
       <c r="A60" s="1" t="n">
         <v>45289</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -808,7 +845,7 @@
       <c r="A61" s="1" t="n">
         <v>45290</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -816,15 +853,15 @@
       <c r="A62" s="1" t="n">
         <v>45291</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>24</v>
+      <c r="B62" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>45292</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -832,7 +869,7 @@
       <c r="A64" s="1" t="n">
         <v>45293</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -840,7 +877,7 @@
       <c r="A65" s="1" t="n">
         <v>45294</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -848,15 +885,15 @@
       <c r="A66" s="1" t="n">
         <v>45295</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>24</v>
+      <c r="B66" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>45296</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -864,7 +901,7 @@
       <c r="A68" s="1" t="n">
         <v>45297</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -872,7 +909,7 @@
       <c r="A69" s="1" t="n">
         <v>45298</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -880,15 +917,15 @@
       <c r="A70" s="1" t="n">
         <v>45299</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>24</v>
+      <c r="B70" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>45300</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -896,7 +933,7 @@
       <c r="A72" s="1" t="n">
         <v>45301</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -904,7 +941,7 @@
       <c r="A73" s="1" t="n">
         <v>45302</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -912,15 +949,15 @@
       <c r="A74" s="1" t="n">
         <v>45303</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>24</v>
+      <c r="B74" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>45304</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -928,7 +965,7 @@
       <c r="A76" s="1" t="n">
         <v>45305</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -936,7 +973,7 @@
       <c r="A77" s="1" t="n">
         <v>45306</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -944,15 +981,15 @@
       <c r="A78" s="1" t="n">
         <v>45307</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>24</v>
+      <c r="B78" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>45308</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -960,7 +997,7 @@
       <c r="A80" s="1" t="n">
         <v>45309</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -968,7 +1005,7 @@
       <c r="A81" s="1" t="n">
         <v>45310</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -976,15 +1013,15 @@
       <c r="A82" s="1" t="n">
         <v>45311</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>24</v>
+      <c r="B82" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>45312</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -992,7 +1029,7 @@
       <c r="A84" s="1" t="n">
         <v>45313</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1000,7 +1037,7 @@
       <c r="A85" s="1" t="n">
         <v>45314</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1008,15 +1045,15 @@
       <c r="A86" s="1" t="n">
         <v>45315</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>24</v>
+      <c r="B86" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>45316</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1024,7 +1061,7 @@
       <c r="A88" s="1" t="n">
         <v>45317</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1032,7 +1069,7 @@
       <c r="A89" s="1" t="n">
         <v>45318</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1040,15 +1077,15 @@
       <c r="A90" s="1" t="n">
         <v>45319</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>24</v>
+      <c r="B90" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>45320</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1056,7 +1093,7 @@
       <c r="A92" s="1" t="n">
         <v>45321</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1064,7 +1101,7 @@
       <c r="A93" s="1" t="n">
         <v>45322</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1072,15 +1109,15 @@
       <c r="A94" s="1" t="n">
         <v>45323</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>24</v>
+      <c r="B94" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>45324</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1088,7 +1125,7 @@
       <c r="A96" s="1" t="n">
         <v>45325</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1096,7 +1133,7 @@
       <c r="A97" s="1" t="n">
         <v>45326</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/change.xlsx
+++ b/change.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Сотрудники на смене" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="27">
   <si>
     <t xml:space="preserve">Дата</t>
   </si>
@@ -155,6 +155,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">✈ Внуково: ⚡Электромонтер «1/3»: Ефремов Алексей,
+🛠Сантехник «1/3»: Галкин Владимир, 🔨
+Мастер хаус «5/2»: Долженко Валерий, 👨‍🏭Сварщик «5/2»: Скороходов Павел | ✈ Новое Внуково: ⚡Электромонтер «1/3»: Хамитов Тимур, 🛠
+Сантехник «5/2»: Клишин Виталий</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -163,7 +169,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">✈ Внуково: Электромонтер «1/3»: Ефремов Алексей, Сантехник «1/3»: Галкин Владимир, Мастер хаус «5/2»: Долженко Валерий, Сварщик «5/2»: Скороходов Павел </t>
+      <t xml:space="preserve">✈Внуково: Электромонтер «1/3»:Громов Евгений, Сантехник «1/3»:Ширнин Сергей, , Мастер хаус «5/2»: Долженко Валерий, Сварщик «5/2»: Скороходов Павел </t>
     </r>
     <r>
       <rPr>
@@ -174,7 +180,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">| </t>
+      <t xml:space="preserve">|</t>
     </r>
     <r>
       <rPr>
@@ -184,7 +190,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">✈ Новое Внуково: Электромонтер «1/3»: Хамитов Тимур, Сантехник «5/2»: Клишин Виталий</t>
+      <t xml:space="preserve"> ✈Новое Внуково: Электромонтер «1/3»:Маркин Николай, , Сантехник «5/2»: Клишин Виталий</t>
     </r>
   </si>
   <si>
@@ -273,16 +279,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -291,6 +297,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -313,24 +323,24 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="92.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="103.97"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="n">
         <f aca="true">TODAY()</f>
-        <v>45252</v>
-      </c>
-      <c r="B1" s="2" t="str">
+        <v>45254</v>
+      </c>
+      <c r="B1" s="1" t="str">
         <f aca="false">VLOOKUP(A1,'Список сотрудников'!A2:B101,2)</f>
-        <v>✈ Внуково: Электромонтер «1/3»: Подопригора Кирилл, Сантехник «1/3»: Валиев Юрий, Мастер хаус «5/2»: Долженко Валерий, Сварщик «5/2»: Скороходов Павел | ✈ Новое Внуково: Электромонтер «1/3»: Хамитов Тимур, Сантехник «5/2»: Клишин Виталий</v>
+        <v>✈Внуково: Электромонтер «1/3»:Громов Евгений, Сантехник «1/3»:Ширнин Сергей, , Мастер хаус «5/2»: Долженко Валерий, Сварщик «5/2»: Скороходов Павел | ✈Новое Внуково: Электромонтер «1/3»:Маркин Николай, , Сантехник «5/2»: Клишин Виталий</v>
       </c>
     </row>
   </sheetData>
@@ -351,18 +361,18 @@
   </sheetPr>
   <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="93.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="106.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -370,7 +380,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>45231</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -378,7 +388,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>45232</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -386,7 +396,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>45233</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -394,7 +404,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>45234</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -402,7 +412,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>45235</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -410,7 +420,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>45236</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -418,7 +428,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>45237</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -426,7 +436,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>45238</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -434,7 +444,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>45239</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -442,7 +452,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>45240</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -450,7 +460,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>45241</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -458,7 +468,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -466,7 +476,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>45243</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -474,7 +484,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>45244</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -482,7 +492,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>45245</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -490,7 +500,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>45246</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -498,7 +508,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>45247</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -506,7 +516,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>45248</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -514,7 +524,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>45249</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -522,7 +532,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>45250</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -530,7 +540,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>45251</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -538,39 +548,39 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>45252</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
         <v>45253</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
         <v>45254</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>21</v>
+      <c r="B25" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>45255</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>45256</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -578,7 +588,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>45257</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -586,7 +596,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>45258</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -594,15 +604,15 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>45259</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>45260</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -610,7 +620,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>45261</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -618,7 +628,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>45262</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -626,15 +636,15 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="2" t="n">
         <v>45263</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="2" t="n">
         <v>45264</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -642,7 +652,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="2" t="n">
         <v>45265</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -650,7 +660,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="2" t="n">
         <v>45266</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -658,15 +668,15 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="2" t="n">
         <v>45267</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="2" t="n">
         <v>45268</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -674,7 +684,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="2" t="n">
         <v>45269</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -682,7 +692,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="2" t="n">
         <v>45270</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -690,15 +700,15 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="2" t="n">
         <v>45271</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="2" t="n">
         <v>45272</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -706,7 +716,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="2" t="n">
         <v>45273</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -714,7 +724,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="2" t="n">
         <v>45274</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -722,15 +732,15 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="2" t="n">
         <v>45275</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="2" t="n">
         <v>45276</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -738,7 +748,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="2" t="n">
         <v>45277</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -746,7 +756,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="2" t="n">
         <v>45278</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -754,15 +764,15 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="2" t="n">
         <v>45279</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="2" t="n">
         <v>45280</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -770,7 +780,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="2" t="n">
         <v>45281</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -778,7 +788,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="2" t="n">
         <v>45282</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -786,15 +796,15 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="2" t="n">
         <v>45283</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="2" t="n">
         <v>45284</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -802,7 +812,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="2" t="n">
         <v>45285</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -810,7 +820,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="2" t="n">
         <v>45286</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -818,15 +828,15 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="2" t="n">
         <v>45287</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="2" t="n">
         <v>45288</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -834,7 +844,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="2" t="n">
         <v>45289</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -842,7 +852,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="2" t="n">
         <v>45290</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -850,15 +860,15 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="2" t="n">
         <v>45291</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -866,7 +876,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -874,7 +884,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -882,15 +892,15 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -898,7 +908,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -906,7 +916,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -914,15 +924,15 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="2" t="n">
         <v>45299</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="2" t="n">
         <v>45300</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -930,7 +940,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="2" t="n">
         <v>45301</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -938,7 +948,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="2" t="n">
         <v>45302</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -946,15 +956,15 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="2" t="n">
         <v>45303</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="2" t="n">
         <v>45304</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -962,7 +972,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="2" t="n">
         <v>45305</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -970,7 +980,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="2" t="n">
         <v>45306</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -978,15 +988,15 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="2" t="n">
         <v>45307</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="2" t="n">
         <v>45308</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -994,7 +1004,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="2" t="n">
         <v>45309</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -1002,7 +1012,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="2" t="n">
         <v>45310</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -1010,15 +1020,15 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="2" t="n">
         <v>45311</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="2" t="n">
         <v>45312</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -1026,7 +1036,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="2" t="n">
         <v>45313</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -1034,7 +1044,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="2" t="n">
         <v>45314</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -1042,15 +1052,15 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+      <c r="A86" s="2" t="n">
         <v>45315</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="2" t="n">
         <v>45316</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -1058,7 +1068,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="2" t="n">
         <v>45317</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -1066,7 +1076,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="2" t="n">
         <v>45318</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -1074,15 +1084,15 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="2" t="n">
         <v>45319</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="2" t="n">
         <v>45320</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -1090,7 +1100,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="2" t="n">
         <v>45321</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -1098,7 +1108,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="2" t="n">
         <v>45322</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -1106,15 +1116,15 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="2" t="n">
         <v>45323</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="2" t="n">
         <v>45324</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -1122,7 +1132,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="2" t="n">
         <v>45325</v>
       </c>
       <c r="B96" s="3" t="s">
@@ -1130,7 +1140,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="2" t="n">
         <v>45326</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -1138,32 +1148,32 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="2" t="n">
         <v>45327</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="2" t="n">
         <v>45328</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="2" t="n">
         <v>45329</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="2" t="n">
         <v>45330</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+      <c r="A102" s="2" t="n">
         <v>45331</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
+      <c r="A103" s="2" t="n">
         <v>45332</v>
       </c>
     </row>
